--- a/src/hydroponics/data/UserData.xlsx
+++ b/src/hydroponics/data/UserData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nilst\Documents\EPFL\BA_4\ppchem\Project\Project_ppchem\src\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nilst\Documents\EPFL\BA_4\ppchem\Project\Project_ppchem\src\hydroponics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22065428-FE93-4359-9B81-5239F8CE6500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4968535-75DD-4AC4-BB7D-21685DEDD589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0C9764DA-48EA-406B-ADE4-285EB2DAE83A}"/>
+    <workbookView xWindow="71895" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{0C9764DA-48EA-406B-ADE4-285EB2DAE83A}"/>
   </bookViews>
   <sheets>
     <sheet name="My solution" sheetId="4" r:id="rId1"/>
@@ -994,7 +994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CC4EC92-7D01-47DF-ACA6-90C1CE1B686F}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
@@ -1141,8 +1141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0473C355-34F7-47B7-A944-9A4393DAF199}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E15"/>
+    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
